--- a/data/pca/factorExposure/factorExposure_2015-10-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-10-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01140325241240353</v>
+        <v>0.01468566564543771</v>
       </c>
       <c r="C2">
-        <v>0.0276226122459397</v>
+        <v>0.03417286784467921</v>
       </c>
       <c r="D2">
-        <v>-0.1042158761668671</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.128116388093862</v>
+      </c>
+      <c r="E2">
+        <v>-0.05890263611935227</v>
+      </c>
+      <c r="F2">
+        <v>0.03017004808673364</v>
+      </c>
+      <c r="G2">
+        <v>0.05243884622997858</v>
+      </c>
+      <c r="H2">
+        <v>-0.1069219395329422</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01811086139019983</v>
+        <v>0.01312339000898815</v>
       </c>
       <c r="C3">
-        <v>0.05033954545428283</v>
+        <v>0.04074212359509222</v>
       </c>
       <c r="D3">
-        <v>-0.08498685333872021</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.05437289684819679</v>
+      </c>
+      <c r="E3">
+        <v>-0.04104292040888096</v>
+      </c>
+      <c r="F3">
+        <v>0.0731712882279086</v>
+      </c>
+      <c r="G3">
+        <v>0.1199464390358552</v>
+      </c>
+      <c r="H3">
+        <v>-0.06227760237814515</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04411510062964153</v>
+        <v>0.0490108841857318</v>
       </c>
       <c r="C4">
-        <v>0.05931813296363514</v>
+        <v>0.07141915203811675</v>
       </c>
       <c r="D4">
-        <v>-0.1245309704830326</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1464082420450739</v>
+      </c>
+      <c r="E4">
+        <v>-0.05046220624421149</v>
+      </c>
+      <c r="F4">
+        <v>0.04105550348041387</v>
+      </c>
+      <c r="G4">
+        <v>-0.04318838626455992</v>
+      </c>
+      <c r="H4">
+        <v>0.003389274986783928</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03464048595089259</v>
+        <v>0.03816152638617815</v>
       </c>
       <c r="C6">
-        <v>0.02294371994335136</v>
+        <v>0.02765558682452973</v>
       </c>
       <c r="D6">
-        <v>-0.152656816084959</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1407123807931772</v>
+      </c>
+      <c r="E6">
+        <v>-0.01749817821533003</v>
+      </c>
+      <c r="F6">
+        <v>0.02880248436753909</v>
+      </c>
+      <c r="G6">
+        <v>-0.01837305267074677</v>
+      </c>
+      <c r="H6">
+        <v>-0.05707530466062448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01511057175245808</v>
+        <v>0.01187212285417876</v>
       </c>
       <c r="C7">
-        <v>0.02669446473945671</v>
+        <v>0.03339033701424636</v>
       </c>
       <c r="D7">
-        <v>-0.1046775277130045</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09693609616111262</v>
+      </c>
+      <c r="E7">
+        <v>-0.01621310964765255</v>
+      </c>
+      <c r="F7">
+        <v>0.0296481077220318</v>
+      </c>
+      <c r="G7">
+        <v>0.007893888836953734</v>
+      </c>
+      <c r="H7">
+        <v>-0.08302536053849903</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.008076695027707989</v>
+        <v>0.008247451143798689</v>
       </c>
       <c r="C8">
-        <v>0.03126190392891738</v>
+        <v>0.0353539195402767</v>
       </c>
       <c r="D8">
-        <v>-0.06234288744374544</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07653147532590523</v>
+      </c>
+      <c r="E8">
+        <v>-0.02991689090722876</v>
+      </c>
+      <c r="F8">
+        <v>0.06778661632792854</v>
+      </c>
+      <c r="G8">
+        <v>0.02992438334266866</v>
+      </c>
+      <c r="H8">
+        <v>-0.05776286177742228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03728528694365867</v>
+        <v>0.03930850441883937</v>
       </c>
       <c r="C9">
-        <v>0.05293120682093506</v>
+        <v>0.06497260734654141</v>
       </c>
       <c r="D9">
-        <v>-0.1109540849148815</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1221620436368309</v>
+      </c>
+      <c r="E9">
+        <v>-0.03922744282606986</v>
+      </c>
+      <c r="F9">
+        <v>0.02365250725712938</v>
+      </c>
+      <c r="G9">
+        <v>-0.02466260934994179</v>
+      </c>
+      <c r="H9">
+        <v>-0.004311573640700784</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1170138143338659</v>
+        <v>0.1479623072559211</v>
       </c>
       <c r="C10">
-        <v>-0.1823099653007586</v>
+        <v>-0.1881067647947612</v>
       </c>
       <c r="D10">
-        <v>-0.003121721159091793</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.009780327581457676</v>
+      </c>
+      <c r="E10">
+        <v>-0.04129578084185573</v>
+      </c>
+      <c r="F10">
+        <v>0.05355855844466634</v>
+      </c>
+      <c r="G10">
+        <v>0.0002526362018307954</v>
+      </c>
+      <c r="H10">
+        <v>0.03281642151258169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02915436256517295</v>
+        <v>0.02826473243525409</v>
       </c>
       <c r="C11">
-        <v>0.0420506258122382</v>
+        <v>0.04574541385529197</v>
       </c>
       <c r="D11">
-        <v>-0.06031810782331996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05973764532399868</v>
+      </c>
+      <c r="E11">
+        <v>0.008538526806455947</v>
+      </c>
+      <c r="F11">
+        <v>-0.004155123894706629</v>
+      </c>
+      <c r="G11">
+        <v>-0.001138941759627754</v>
+      </c>
+      <c r="H11">
+        <v>-0.03423045345462165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03460218723969984</v>
+        <v>0.03234985508761812</v>
       </c>
       <c r="C12">
-        <v>0.04352916772425899</v>
+        <v>0.04801099013177084</v>
       </c>
       <c r="D12">
-        <v>-0.0599673177641854</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05619961900260696</v>
+      </c>
+      <c r="E12">
+        <v>-0.0008274667812788321</v>
+      </c>
+      <c r="F12">
+        <v>-0.00773204530173113</v>
+      </c>
+      <c r="G12">
+        <v>0.007334540032568568</v>
+      </c>
+      <c r="H12">
+        <v>-0.03545992710897976</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.009432288663339507</v>
+        <v>0.0157729755491961</v>
       </c>
       <c r="C13">
-        <v>0.03353652256844112</v>
+        <v>0.03893427115459271</v>
       </c>
       <c r="D13">
-        <v>-0.1392802709402408</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1558555349193813</v>
+      </c>
+      <c r="E13">
+        <v>-0.03007063023341322</v>
+      </c>
+      <c r="F13">
+        <v>0.06163996566043765</v>
+      </c>
+      <c r="G13">
+        <v>0.02123688069960194</v>
+      </c>
+      <c r="H13">
+        <v>-0.07535693157305819</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.001247381546907017</v>
+        <v>0.005987238411475454</v>
       </c>
       <c r="C14">
-        <v>0.02145944450523057</v>
+        <v>0.02284845729751154</v>
       </c>
       <c r="D14">
-        <v>-0.0892429080072958</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.09409035369280613</v>
+      </c>
+      <c r="E14">
+        <v>-0.03227591930608148</v>
+      </c>
+      <c r="F14">
+        <v>0.0168769779748002</v>
+      </c>
+      <c r="G14">
+        <v>0.006583770483760216</v>
+      </c>
+      <c r="H14">
+        <v>-0.10082647792605</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.003208681491909826</v>
+        <v>0.001030036993834434</v>
       </c>
       <c r="C15">
-        <v>0.003456572383737425</v>
+        <v>0.01217427356068759</v>
       </c>
       <c r="D15">
-        <v>-0.003950715007194007</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.03571856067418349</v>
+      </c>
+      <c r="E15">
+        <v>-0.01007518265062933</v>
+      </c>
+      <c r="F15">
+        <v>0.001820233894117002</v>
+      </c>
+      <c r="G15">
+        <v>0.002128733131601647</v>
+      </c>
+      <c r="H15">
+        <v>-0.02278052476103116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.0284165589684853</v>
+        <v>0.02777662169640575</v>
       </c>
       <c r="C16">
-        <v>0.04447926757126423</v>
+        <v>0.04707298229897725</v>
       </c>
       <c r="D16">
-        <v>-0.06413013931947581</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06190080689704366</v>
+      </c>
+      <c r="E16">
+        <v>-0.007976546877565499</v>
+      </c>
+      <c r="F16">
+        <v>0.001425194328054712</v>
+      </c>
+      <c r="G16">
+        <v>0.001517663975160712</v>
+      </c>
+      <c r="H16">
+        <v>-0.04898172898227884</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.006446695420130386</v>
+        <v>0.005038302751614364</v>
       </c>
       <c r="C19">
-        <v>0.03305522583826488</v>
+        <v>0.02714025734110108</v>
       </c>
       <c r="D19">
-        <v>-0.1498242762179385</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1150877896696737</v>
+      </c>
+      <c r="E19">
+        <v>-0.05827043205177299</v>
+      </c>
+      <c r="F19">
+        <v>0.005577667740705796</v>
+      </c>
+      <c r="G19">
+        <v>0.02986846589889041</v>
+      </c>
+      <c r="H19">
+        <v>-0.05451263441293813</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01067968804697643</v>
+        <v>0.01399528358794495</v>
       </c>
       <c r="C20">
-        <v>0.03125220182995501</v>
+        <v>0.03448922528559544</v>
       </c>
       <c r="D20">
-        <v>-0.09007923595056001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.1037930043473751</v>
+      </c>
+      <c r="E20">
+        <v>-0.0474511774154756</v>
+      </c>
+      <c r="F20">
+        <v>0.01561268532236611</v>
+      </c>
+      <c r="G20">
+        <v>-0.003259134828048496</v>
+      </c>
+      <c r="H20">
+        <v>-0.05597254257209038</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.002307612581947432</v>
+        <v>0.007504525658491131</v>
       </c>
       <c r="C21">
-        <v>0.03078645236884451</v>
+        <v>0.03817654771245529</v>
       </c>
       <c r="D21">
-        <v>-0.1343095152050108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1411238105575791</v>
+      </c>
+      <c r="E21">
+        <v>-0.08130494230411067</v>
+      </c>
+      <c r="F21">
+        <v>0.04481653625966765</v>
+      </c>
+      <c r="G21">
+        <v>-2.406234833514961e-05</v>
+      </c>
+      <c r="H21">
+        <v>-0.08157297858959829</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.003515463515566666</v>
+        <v>0.007490198598315314</v>
       </c>
       <c r="C22">
-        <v>0.04524758175356802</v>
+        <v>0.04161445933959441</v>
       </c>
       <c r="D22">
-        <v>-0.1078498026798855</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.162125560316164</v>
+      </c>
+      <c r="E22">
+        <v>-0.02003555909026473</v>
+      </c>
+      <c r="F22">
+        <v>0.09274296060625833</v>
+      </c>
+      <c r="G22">
+        <v>0.06094322777580977</v>
+      </c>
+      <c r="H22">
+        <v>-0.03814875781242032</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.003368990719705757</v>
+        <v>0.007618930846917333</v>
       </c>
       <c r="C23">
-        <v>0.04555331447199603</v>
+        <v>0.04208742687090505</v>
       </c>
       <c r="D23">
-        <v>-0.1073873833010625</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1614301933579576</v>
+      </c>
+      <c r="E23">
+        <v>-0.02048190603019986</v>
+      </c>
+      <c r="F23">
+        <v>0.09286307221957443</v>
+      </c>
+      <c r="G23">
+        <v>0.06018374037846289</v>
+      </c>
+      <c r="H23">
+        <v>-0.03762311812569537</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03115360526097976</v>
+        <v>0.02938630862346326</v>
       </c>
       <c r="C24">
-        <v>0.05441765563915113</v>
+        <v>0.05850018209643764</v>
       </c>
       <c r="D24">
-        <v>-0.06523322297954094</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06547098327179932</v>
+      </c>
+      <c r="E24">
+        <v>-0.01000098839303263</v>
+      </c>
+      <c r="F24">
+        <v>-0.0003953342388959386</v>
+      </c>
+      <c r="G24">
+        <v>-0.008892903078117208</v>
+      </c>
+      <c r="H24">
+        <v>-0.0554341615937624</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03574505978557819</v>
+        <v>0.03337261796748085</v>
       </c>
       <c r="C25">
-        <v>0.05225354510345092</v>
+        <v>0.05571944233849916</v>
       </c>
       <c r="D25">
-        <v>-0.0637355105993125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06241751471734246</v>
+      </c>
+      <c r="E25">
+        <v>-0.01044810376911918</v>
+      </c>
+      <c r="F25">
+        <v>0.002192386649575221</v>
+      </c>
+      <c r="G25">
+        <v>0.003266281538868067</v>
+      </c>
+      <c r="H25">
+        <v>-0.02771012417951817</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01296467261853686</v>
+        <v>0.01573139580068402</v>
       </c>
       <c r="C26">
-        <v>0.01176208456665154</v>
+        <v>0.01750047718900654</v>
       </c>
       <c r="D26">
-        <v>-0.05598278164479146</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06379045043807532</v>
+      </c>
+      <c r="E26">
+        <v>-0.02143704041909513</v>
+      </c>
+      <c r="F26">
+        <v>0.01945185267495531</v>
+      </c>
+      <c r="G26">
+        <v>0.00156044014153483</v>
+      </c>
+      <c r="H26">
+        <v>-0.05785769947350262</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.171588760491288</v>
+        <v>0.2114400310492043</v>
       </c>
       <c r="C28">
-        <v>-0.2597110333249478</v>
+        <v>-0.2521619199650615</v>
       </c>
       <c r="D28">
-        <v>0.0104327160811654</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.003182015120234544</v>
+      </c>
+      <c r="E28">
+        <v>-0.07666923637863746</v>
+      </c>
+      <c r="F28">
+        <v>0.03654771440915499</v>
+      </c>
+      <c r="G28">
+        <v>-0.02682844844241154</v>
+      </c>
+      <c r="H28">
+        <v>0.04216760097056921</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.001450402366253807</v>
+        <v>0.003573252562969326</v>
       </c>
       <c r="C29">
-        <v>0.02130118662718387</v>
+        <v>0.02106023832530772</v>
       </c>
       <c r="D29">
-        <v>-0.07898050854137269</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.09182534459759131</v>
+      </c>
+      <c r="E29">
+        <v>-0.02322647548400838</v>
+      </c>
+      <c r="F29">
+        <v>0.03548465008914927</v>
+      </c>
+      <c r="G29">
+        <v>-0.003535454190999703</v>
+      </c>
+      <c r="H29">
+        <v>-0.09708447060239569</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02656703843828311</v>
+        <v>0.03586001323613339</v>
       </c>
       <c r="C30">
-        <v>0.04857059550146597</v>
+        <v>0.06210985323972915</v>
       </c>
       <c r="D30">
-        <v>-0.1582885459381611</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1731933936958242</v>
+      </c>
+      <c r="E30">
+        <v>-0.02330997119728068</v>
+      </c>
+      <c r="F30">
+        <v>0.02816148037948117</v>
+      </c>
+      <c r="G30">
+        <v>-0.02239956094561013</v>
+      </c>
+      <c r="H30">
+        <v>-0.0708810237117905</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05832899106144853</v>
+        <v>0.05182866072076613</v>
       </c>
       <c r="C31">
-        <v>0.06514184215921437</v>
+        <v>0.07627575801385109</v>
       </c>
       <c r="D31">
-        <v>-0.07265439311999002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.05599670901355675</v>
+      </c>
+      <c r="E31">
+        <v>-0.01950548986237669</v>
+      </c>
+      <c r="F31">
+        <v>0.04307106476608509</v>
+      </c>
+      <c r="G31">
+        <v>0.006205106522790816</v>
+      </c>
+      <c r="H31">
+        <v>-0.01282413950796318</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.008480331321846472</v>
+        <v>0.0154037694939016</v>
       </c>
       <c r="C32">
-        <v>0.01052933878174156</v>
+        <v>0.01459567896193292</v>
       </c>
       <c r="D32">
-        <v>-0.07298976217183889</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1138290937365153</v>
+      </c>
+      <c r="E32">
+        <v>-0.07565576289354101</v>
+      </c>
+      <c r="F32">
+        <v>0.051322200176779</v>
+      </c>
+      <c r="G32">
+        <v>-0.003993483970038239</v>
+      </c>
+      <c r="H32">
+        <v>-0.06524274331089029</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.01958394238264446</v>
+        <v>0.02325571117291755</v>
       </c>
       <c r="C33">
-        <v>0.03811939359652394</v>
+        <v>0.04498913711425722</v>
       </c>
       <c r="D33">
-        <v>-0.1368141323420032</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1343297079771284</v>
+      </c>
+      <c r="E33">
+        <v>-0.03975371674675086</v>
+      </c>
+      <c r="F33">
+        <v>0.02779021386866191</v>
+      </c>
+      <c r="G33">
+        <v>0.005669921402058355</v>
+      </c>
+      <c r="H33">
+        <v>-0.06433595763687507</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02929265735919918</v>
+        <v>0.02537111560556406</v>
       </c>
       <c r="C34">
-        <v>0.06514982636192994</v>
+        <v>0.06347017316454218</v>
       </c>
       <c r="D34">
-        <v>-0.06724657467291842</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05519161010808349</v>
+      </c>
+      <c r="E34">
+        <v>0.008317598208098558</v>
+      </c>
+      <c r="F34">
+        <v>-0.01107487321241977</v>
+      </c>
+      <c r="G34">
+        <v>0.006994906191662661</v>
+      </c>
+      <c r="H34">
+        <v>-0.04589691005740031</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0009250342885416084</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0007013208662444355</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.007514982452067416</v>
+      </c>
+      <c r="E35">
+        <v>0.000393318541366787</v>
+      </c>
+      <c r="F35">
+        <v>0.001000033667598131</v>
+      </c>
+      <c r="G35">
+        <v>0.0004900499786035967</v>
+      </c>
+      <c r="H35">
+        <v>-0.004357080757664288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01621465200423526</v>
+        <v>0.01840593339326864</v>
       </c>
       <c r="C36">
-        <v>0.007606714523365315</v>
+        <v>0.01521428377908947</v>
       </c>
       <c r="D36">
-        <v>-0.07872772343559804</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.07842775521652048</v>
+      </c>
+      <c r="E36">
+        <v>-0.02973919691102017</v>
+      </c>
+      <c r="F36">
+        <v>0.0175560580153853</v>
+      </c>
+      <c r="G36">
+        <v>-0.009662384348025818</v>
+      </c>
+      <c r="H36">
+        <v>-0.04954013788604181</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01767690824152364</v>
+        <v>0.02042086689706072</v>
       </c>
       <c r="C38">
-        <v>0.01815423478826089</v>
+        <v>0.02002370537600731</v>
       </c>
       <c r="D38">
-        <v>-0.0628132758844071</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.06668280745523079</v>
+      </c>
+      <c r="E38">
+        <v>-0.03390452284312567</v>
+      </c>
+      <c r="F38">
+        <v>-0.009338571291732411</v>
+      </c>
+      <c r="G38">
+        <v>0.02657584685216273</v>
+      </c>
+      <c r="H38">
+        <v>-0.04674952360082143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03326757785221666</v>
+        <v>0.03288822967509751</v>
       </c>
       <c r="C39">
-        <v>0.0568928207122919</v>
+        <v>0.06930866227650742</v>
       </c>
       <c r="D39">
-        <v>-0.08676666175910526</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1028902408089243</v>
+      </c>
+      <c r="E39">
+        <v>-0.01233392688124845</v>
+      </c>
+      <c r="F39">
+        <v>-0.01966312084645468</v>
+      </c>
+      <c r="G39">
+        <v>-0.01857434255671936</v>
+      </c>
+      <c r="H39">
+        <v>-0.09520971040593065</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01240363885366157</v>
+        <v>0.01129677645585878</v>
       </c>
       <c r="C40">
-        <v>0.04348678937233873</v>
+        <v>0.03900567309464553</v>
       </c>
       <c r="D40">
-        <v>-0.08416453536718072</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.08873478916379549</v>
+      </c>
+      <c r="E40">
+        <v>-0.04630469062208557</v>
+      </c>
+      <c r="F40">
+        <v>0.1020197644751956</v>
+      </c>
+      <c r="G40">
+        <v>0.1083695182048926</v>
+      </c>
+      <c r="H40">
+        <v>-0.1528014994773229</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02291235304983648</v>
+        <v>0.02277923587788413</v>
       </c>
       <c r="C41">
-        <v>0.003451492799112901</v>
+        <v>0.009636644300167951</v>
       </c>
       <c r="D41">
-        <v>-0.06784605577346065</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05311504684074618</v>
+      </c>
+      <c r="E41">
+        <v>-0.04869470032436592</v>
+      </c>
+      <c r="F41">
+        <v>0.01793943413777694</v>
+      </c>
+      <c r="G41">
+        <v>0.02268829769957042</v>
+      </c>
+      <c r="H41">
+        <v>-0.04163131789692016</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.02362396331507394</v>
+        <v>0.02212480145695384</v>
       </c>
       <c r="C43">
-        <v>0.01495188244229793</v>
+        <v>0.01911995779395054</v>
       </c>
       <c r="D43">
-        <v>-0.110168191845601</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.084429024402511</v>
+      </c>
+      <c r="E43">
+        <v>-0.02415580393236634</v>
+      </c>
+      <c r="F43">
+        <v>0.01367989936641484</v>
+      </c>
+      <c r="G43">
+        <v>0.02544703847893746</v>
+      </c>
+      <c r="H43">
+        <v>-0.04950922494177994</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.009635852964971622</v>
+        <v>0.01368754929110186</v>
       </c>
       <c r="C44">
-        <v>0.04202569736172296</v>
+        <v>0.04185238917235893</v>
       </c>
       <c r="D44">
-        <v>-0.08266027687726887</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.1037421532121577</v>
+      </c>
+      <c r="E44">
+        <v>-0.04979005500107894</v>
+      </c>
+      <c r="F44">
+        <v>0.02466474240673392</v>
+      </c>
+      <c r="G44">
+        <v>0.01037740137035393</v>
+      </c>
+      <c r="H44">
+        <v>-0.06388760233302415</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01016856852124688</v>
+        <v>0.01132945972560803</v>
       </c>
       <c r="C46">
-        <v>0.02531518170180588</v>
+        <v>0.02969087382835571</v>
       </c>
       <c r="D46">
-        <v>-0.08630358520495594</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.08824012114607238</v>
+      </c>
+      <c r="E46">
+        <v>-0.03403556740896585</v>
+      </c>
+      <c r="F46">
+        <v>0.01489285978557081</v>
+      </c>
+      <c r="G46">
+        <v>-0.007536665363132116</v>
+      </c>
+      <c r="H46">
+        <v>-0.09202395892943521</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.08992337920216865</v>
+        <v>0.08038076189238059</v>
       </c>
       <c r="C47">
-        <v>0.07442469348044524</v>
+        <v>0.09122343960759863</v>
       </c>
       <c r="D47">
-        <v>-0.04748184750845903</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.03552788941682915</v>
+      </c>
+      <c r="E47">
+        <v>-0.03220456400566053</v>
+      </c>
+      <c r="F47">
+        <v>0.03174122356247399</v>
+      </c>
+      <c r="G47">
+        <v>0.01786985755883902</v>
+      </c>
+      <c r="H47">
+        <v>0.04816001344196849</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.009154513744797484</v>
+        <v>0.01345745949557462</v>
       </c>
       <c r="C48">
-        <v>0.01702567418800384</v>
+        <v>0.02086730969708738</v>
       </c>
       <c r="D48">
-        <v>-0.06590378186590969</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07271953785701885</v>
+      </c>
+      <c r="E48">
+        <v>-0.05494103342711511</v>
+      </c>
+      <c r="F48">
+        <v>0.02242968959372219</v>
+      </c>
+      <c r="G48">
+        <v>-0.005672248138280586</v>
+      </c>
+      <c r="H48">
+        <v>-0.05607705142989502</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.05451839523411778</v>
+        <v>0.04873250437348826</v>
       </c>
       <c r="C50">
-        <v>0.0562302720222102</v>
+        <v>0.06787093839455323</v>
       </c>
       <c r="D50">
-        <v>-0.06226343560645349</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05386478965610805</v>
+      </c>
+      <c r="E50">
+        <v>-0.02341065181588548</v>
+      </c>
+      <c r="F50">
+        <v>0.04646549765220576</v>
+      </c>
+      <c r="G50">
+        <v>0.03907856928075874</v>
+      </c>
+      <c r="H50">
+        <v>-0.01929712405580507</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.008536467980284006</v>
+        <v>0.009895891618516022</v>
       </c>
       <c r="C51">
-        <v>0.01498955930459385</v>
+        <v>0.02073273541458493</v>
       </c>
       <c r="D51">
-        <v>-0.07826572922820019</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.08897351443031441</v>
+      </c>
+      <c r="E51">
+        <v>-0.009932072588224766</v>
+      </c>
+      <c r="F51">
+        <v>0.007236020848894826</v>
+      </c>
+      <c r="G51">
+        <v>-0.008717072332384791</v>
+      </c>
+      <c r="H51">
+        <v>-0.08815213459808653</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08749116767965362</v>
+        <v>0.08671602629432579</v>
       </c>
       <c r="C53">
-        <v>0.09277183006132321</v>
+        <v>0.101083068386748</v>
       </c>
       <c r="D53">
-        <v>-0.005563906146017065</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01741519790784828</v>
+      </c>
+      <c r="E53">
+        <v>-0.103050793419449</v>
+      </c>
+      <c r="F53">
+        <v>0.08932975707627872</v>
+      </c>
+      <c r="G53">
+        <v>-0.04527075636969406</v>
+      </c>
+      <c r="H53">
+        <v>0.02779679309917528</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02353863520986314</v>
+        <v>0.02423163372499012</v>
       </c>
       <c r="C54">
-        <v>0.02976534628604463</v>
+        <v>0.03461487930277096</v>
       </c>
       <c r="D54">
-        <v>-0.09623523865904293</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.08746573804353158</v>
+      </c>
+      <c r="E54">
+        <v>-0.03886194578113276</v>
+      </c>
+      <c r="F54">
+        <v>0.007841654958693513</v>
+      </c>
+      <c r="G54">
+        <v>0.03118238435905031</v>
+      </c>
+      <c r="H54">
+        <v>-0.08652317791185551</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08960187883828412</v>
+        <v>0.08481204814599784</v>
       </c>
       <c r="C55">
-        <v>0.0701127165240792</v>
+        <v>0.08073928446779287</v>
       </c>
       <c r="D55">
-        <v>0.009944832863055406</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.00458560879532213</v>
+      </c>
+      <c r="E55">
+        <v>-0.04957369152544275</v>
+      </c>
+      <c r="F55">
+        <v>0.06122205545198956</v>
+      </c>
+      <c r="G55">
+        <v>-0.02213367749155587</v>
+      </c>
+      <c r="H55">
+        <v>0.01749190228998377</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1369689474917696</v>
+        <v>0.1274552838353222</v>
       </c>
       <c r="C56">
-        <v>0.1036940623065049</v>
+        <v>0.1275898619115368</v>
       </c>
       <c r="D56">
-        <v>0.005486032441515248</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.008318122257583818</v>
+      </c>
+      <c r="E56">
+        <v>-0.05032028675627516</v>
+      </c>
+      <c r="F56">
+        <v>0.05881891847482208</v>
+      </c>
+      <c r="G56">
+        <v>0.006052931580154853</v>
+      </c>
+      <c r="H56">
+        <v>0.04977575392477378</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.002635527190108437</v>
+        <v>0.01320328068767055</v>
       </c>
       <c r="C58">
-        <v>0.009689268421823556</v>
+        <v>0.0326872302719447</v>
       </c>
       <c r="D58">
-        <v>-0.2646853170786954</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.309565037314686</v>
+      </c>
+      <c r="E58">
+        <v>-0.0870468576055877</v>
+      </c>
+      <c r="F58">
+        <v>0.1042167988907122</v>
+      </c>
+      <c r="G58">
+        <v>0.05129303551890627</v>
+      </c>
+      <c r="H58">
+        <v>0.0246318317209278</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1518818667523799</v>
+        <v>0.1835118332002736</v>
       </c>
       <c r="C59">
-        <v>-0.1771179514082245</v>
+        <v>-0.1666871465240649</v>
       </c>
       <c r="D59">
-        <v>-0.03834078796447393</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.0563704584690659</v>
+      </c>
+      <c r="E59">
+        <v>-0.04048625891904008</v>
+      </c>
+      <c r="F59">
+        <v>-0.03194538321096844</v>
+      </c>
+      <c r="G59">
+        <v>0.001121252127825193</v>
+      </c>
+      <c r="H59">
+        <v>0.02232418107031552</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2412499531239089</v>
+        <v>0.2270942441892804</v>
       </c>
       <c r="C60">
-        <v>0.08289680733573117</v>
+        <v>0.1062885149048604</v>
       </c>
       <c r="D60">
-        <v>-0.209750820878754</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1361994603944322</v>
+      </c>
+      <c r="E60">
+        <v>0.3232277789639603</v>
+      </c>
+      <c r="F60">
+        <v>-0.08301532393961737</v>
+      </c>
+      <c r="G60">
+        <v>-0.03729226865710366</v>
+      </c>
+      <c r="H60">
+        <v>0.1447441368817829</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04081706869354643</v>
+        <v>0.03866135307714942</v>
       </c>
       <c r="C61">
-        <v>0.05412522541141987</v>
+        <v>0.06265892730039263</v>
       </c>
       <c r="D61">
-        <v>-0.1020932926687756</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09411372364307863</v>
+      </c>
+      <c r="E61">
+        <v>-0.003885436438148005</v>
+      </c>
+      <c r="F61">
+        <v>-0.01322021921410064</v>
+      </c>
+      <c r="G61">
+        <v>-0.004827587215306075</v>
+      </c>
+      <c r="H61">
+        <v>-0.05526119754752019</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01498349803037424</v>
+        <v>0.01625929933384538</v>
       </c>
       <c r="C63">
-        <v>0.02176957325920153</v>
+        <v>0.03000272127910579</v>
       </c>
       <c r="D63">
-        <v>-0.07753291731458338</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.07563678977713686</v>
+      </c>
+      <c r="E63">
+        <v>-0.01320456104331839</v>
+      </c>
+      <c r="F63">
+        <v>0.01418326902370739</v>
+      </c>
+      <c r="G63">
+        <v>-0.01121225020921638</v>
+      </c>
+      <c r="H63">
+        <v>-0.05080854018966488</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05532835530912104</v>
+        <v>0.04963540602625525</v>
       </c>
       <c r="C64">
-        <v>0.0744997119406348</v>
+        <v>0.08177911919774036</v>
       </c>
       <c r="D64">
-        <v>-0.05457360874132465</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05623184498726356</v>
+      </c>
+      <c r="E64">
+        <v>-0.01907918906434037</v>
+      </c>
+      <c r="F64">
+        <v>0.003432140603685931</v>
+      </c>
+      <c r="G64">
+        <v>-0.06404631927296373</v>
+      </c>
+      <c r="H64">
+        <v>-0.03820471725897707</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03931172075243463</v>
+        <v>0.04030877099901515</v>
       </c>
       <c r="C65">
-        <v>0.02117393941591672</v>
+        <v>0.02741696005627837</v>
       </c>
       <c r="D65">
-        <v>-0.1267268203949927</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1184870997402259</v>
+      </c>
+      <c r="E65">
+        <v>0.007773676708946228</v>
+      </c>
+      <c r="F65">
+        <v>0.01451250370865498</v>
+      </c>
+      <c r="G65">
+        <v>0.0008956739505798515</v>
+      </c>
+      <c r="H65">
+        <v>-0.02118340958920505</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.0363345885121912</v>
+        <v>0.03630129851008922</v>
       </c>
       <c r="C66">
-        <v>0.06379953332555194</v>
+        <v>0.07826534441963906</v>
       </c>
       <c r="D66">
-        <v>-0.1066733380173794</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1290892236247203</v>
+      </c>
+      <c r="E66">
+        <v>-0.01325136838340092</v>
+      </c>
+      <c r="F66">
+        <v>-0.00777720385011408</v>
+      </c>
+      <c r="G66">
+        <v>0.002026165299222728</v>
+      </c>
+      <c r="H66">
+        <v>-0.06386905226199942</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03903053601858285</v>
+        <v>0.03818160270926001</v>
       </c>
       <c r="C67">
-        <v>0.02339938748648364</v>
+        <v>0.02669699465426871</v>
       </c>
       <c r="D67">
-        <v>-0.0340085230292437</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02755100568209833</v>
+      </c>
+      <c r="E67">
+        <v>-0.01053749464919549</v>
+      </c>
+      <c r="F67">
+        <v>-0.0168899108909197</v>
+      </c>
+      <c r="G67">
+        <v>0.02124629244537812</v>
+      </c>
+      <c r="H67">
+        <v>-0.04178027934754165</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.175011428980038</v>
+        <v>0.2026712028901805</v>
       </c>
       <c r="C68">
-        <v>-0.2192448621804479</v>
+        <v>-0.1974829145360589</v>
       </c>
       <c r="D68">
-        <v>-0.01768697866527707</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.02495466518851203</v>
+      </c>
+      <c r="E68">
+        <v>-0.02965683677554272</v>
+      </c>
+      <c r="F68">
+        <v>0.03013729354486723</v>
+      </c>
+      <c r="G68">
+        <v>0.001050179020580007</v>
+      </c>
+      <c r="H68">
+        <v>-0.01173575063077816</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08048987475907284</v>
+        <v>0.07108303540567201</v>
       </c>
       <c r="C69">
-        <v>0.08992407614155037</v>
+        <v>0.09940626656112179</v>
       </c>
       <c r="D69">
-        <v>-0.07058488579504059</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.05072771745538598</v>
+      </c>
+      <c r="E69">
+        <v>-0.02170667781396546</v>
+      </c>
+      <c r="F69">
+        <v>0.01395567356659527</v>
+      </c>
+      <c r="G69">
+        <v>0.007572381340477214</v>
+      </c>
+      <c r="H69">
+        <v>0.02066659488161409</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.156633223616848</v>
+        <v>0.1870880402510573</v>
       </c>
       <c r="C71">
-        <v>-0.2197296471650283</v>
+        <v>-0.2036947442756841</v>
       </c>
       <c r="D71">
-        <v>-0.02776766254152429</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.03815196681046482</v>
+      </c>
+      <c r="E71">
+        <v>-0.04820786598403863</v>
+      </c>
+      <c r="F71">
+        <v>0.06843110376509058</v>
+      </c>
+      <c r="G71">
+        <v>0.02846987268913442</v>
+      </c>
+      <c r="H71">
+        <v>0.005058359731918686</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1040837613377862</v>
+        <v>0.09866288102947415</v>
       </c>
       <c r="C72">
-        <v>0.05663058747265335</v>
+        <v>0.0781313700184831</v>
       </c>
       <c r="D72">
-        <v>-0.09261390292207637</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.09588008682947459</v>
+      </c>
+      <c r="E72">
+        <v>0.04567925797804967</v>
+      </c>
+      <c r="F72">
+        <v>0.03025449351764267</v>
+      </c>
+      <c r="G72">
+        <v>-0.03660533198575402</v>
+      </c>
+      <c r="H72">
+        <v>-0.03805023797887337</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2569099824534059</v>
+        <v>0.2363755847065896</v>
       </c>
       <c r="C73">
-        <v>0.04943571209080451</v>
+        <v>0.09880688850498649</v>
       </c>
       <c r="D73">
-        <v>-0.3184393186139376</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1750762332149897</v>
+      </c>
+      <c r="E73">
+        <v>0.630844229700151</v>
+      </c>
+      <c r="F73">
+        <v>-0.1890322239331908</v>
+      </c>
+      <c r="G73">
+        <v>-0.06546900361989454</v>
+      </c>
+      <c r="H73">
+        <v>0.1824130729396234</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1052832318905593</v>
+        <v>0.09472649517944329</v>
       </c>
       <c r="C74">
-        <v>0.07565888817889618</v>
+        <v>0.09218387317082803</v>
       </c>
       <c r="D74">
-        <v>0.006152186362524183</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01305812212745121</v>
+      </c>
+      <c r="E74">
+        <v>-0.04123233198172099</v>
+      </c>
+      <c r="F74">
+        <v>0.07432969800059896</v>
+      </c>
+      <c r="G74">
+        <v>-0.0429507829264535</v>
+      </c>
+      <c r="H74">
+        <v>0.05416833000350909</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2474153498069785</v>
+        <v>0.2243200169511161</v>
       </c>
       <c r="C75">
-        <v>0.1352006273964986</v>
+        <v>0.1677948103274579</v>
       </c>
       <c r="D75">
-        <v>0.07747513658032301</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.09784608099766932</v>
+      </c>
+      <c r="E75">
+        <v>-0.0977864250058379</v>
+      </c>
+      <c r="F75">
+        <v>0.02672265277427218</v>
+      </c>
+      <c r="G75">
+        <v>-0.01020294735153338</v>
+      </c>
+      <c r="H75">
+        <v>0.1014062647137132</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1347136512533465</v>
+        <v>0.1234258910799575</v>
       </c>
       <c r="C76">
-        <v>0.09815507386339932</v>
+        <v>0.1136006421675412</v>
       </c>
       <c r="D76">
-        <v>0.007103783184521872</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.008403186403024267</v>
+      </c>
+      <c r="E76">
+        <v>-0.0997508190342223</v>
+      </c>
+      <c r="F76">
+        <v>0.04684466399767829</v>
+      </c>
+      <c r="G76">
+        <v>-0.02693620068661598</v>
+      </c>
+      <c r="H76">
+        <v>-6.820684812065388e-05</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.04680675849422805</v>
+        <v>0.05553372772350237</v>
       </c>
       <c r="C77">
-        <v>0.06635883749408057</v>
+        <v>0.07410390744146887</v>
       </c>
       <c r="D77">
-        <v>-0.03945442762048888</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.130444666327708</v>
+      </c>
+      <c r="E77">
+        <v>-0.360128448065323</v>
+      </c>
+      <c r="F77">
+        <v>-0.2938910175291529</v>
+      </c>
+      <c r="G77">
+        <v>0.4824240151496008</v>
+      </c>
+      <c r="H77">
+        <v>0.6169695884128539</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03490294311523016</v>
+        <v>0.04240249513246062</v>
       </c>
       <c r="C78">
-        <v>0.05817039145461976</v>
+        <v>0.06917329297643676</v>
       </c>
       <c r="D78">
-        <v>-0.1219705940925202</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1354012379008322</v>
+      </c>
+      <c r="E78">
+        <v>-0.01764125627457584</v>
+      </c>
+      <c r="F78">
+        <v>0.03509307476826189</v>
+      </c>
+      <c r="G78">
+        <v>0.007547475352642592</v>
+      </c>
+      <c r="H78">
+        <v>-0.009138159312188527</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.03772106462379656</v>
+        <v>0.04826923379304889</v>
       </c>
       <c r="C79">
-        <v>0.08137789970862433</v>
+        <v>0.09784225713154988</v>
       </c>
       <c r="D79">
-        <v>0.1006522374235803</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02554640008445084</v>
+      </c>
+      <c r="E79">
+        <v>-0.2111790392536272</v>
+      </c>
+      <c r="F79">
+        <v>0.3302207375575615</v>
+      </c>
+      <c r="G79">
+        <v>-0.6662388819088568</v>
+      </c>
+      <c r="H79">
+        <v>0.3803275855703582</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.02489900355334273</v>
+        <v>0.02466133219314285</v>
       </c>
       <c r="C80">
-        <v>0.044788951397122</v>
+        <v>0.04605417993809929</v>
       </c>
       <c r="D80">
-        <v>-0.01835582107133241</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01920315099334342</v>
+      </c>
+      <c r="E80">
+        <v>-0.01830101105316018</v>
+      </c>
+      <c r="F80">
+        <v>0.005937065206125129</v>
+      </c>
+      <c r="G80">
+        <v>-0.003535907769286742</v>
+      </c>
+      <c r="H80">
+        <v>-0.06581973769410319</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1372058251209594</v>
+        <v>0.1203968640893446</v>
       </c>
       <c r="C81">
-        <v>0.1051726066518023</v>
+        <v>0.123335771695056</v>
       </c>
       <c r="D81">
-        <v>0.07089431986627323</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07548281208242995</v>
+      </c>
+      <c r="E81">
+        <v>-0.09888776399431244</v>
+      </c>
+      <c r="F81">
+        <v>0.06291214683070993</v>
+      </c>
+      <c r="G81">
+        <v>-0.009929974024088276</v>
+      </c>
+      <c r="H81">
+        <v>0.03015000729702952</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.3088494485736932</v>
+        <v>0.2584765989242204</v>
       </c>
       <c r="C82">
-        <v>0.2757734998300915</v>
+        <v>0.2729282674303927</v>
       </c>
       <c r="D82">
-        <v>0.2331940295972385</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2375502747557704</v>
+      </c>
+      <c r="E82">
+        <v>0.01300557163300519</v>
+      </c>
+      <c r="F82">
+        <v>0.0179374031551062</v>
+      </c>
+      <c r="G82">
+        <v>0.1863539387389777</v>
+      </c>
+      <c r="H82">
+        <v>-0.01918702788162593</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02659684651946654</v>
+        <v>0.0212621229284095</v>
       </c>
       <c r="C83">
-        <v>0.05328691611537951</v>
+        <v>0.05054521888416061</v>
       </c>
       <c r="D83">
-        <v>-0.0473811411630061</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05074371328412563</v>
+      </c>
+      <c r="E83">
+        <v>-0.03222644833816828</v>
+      </c>
+      <c r="F83">
+        <v>-0.06046291211001759</v>
+      </c>
+      <c r="G83">
+        <v>0.05842060200117673</v>
+      </c>
+      <c r="H83">
+        <v>0.05471613942407483</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.001047119228332463</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.004635099618836264</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01853293793012363</v>
+      </c>
+      <c r="E84">
+        <v>-0.01690902481009104</v>
+      </c>
+      <c r="F84">
+        <v>0.01622574373643172</v>
+      </c>
+      <c r="G84">
+        <v>-0.0003290725850314738</v>
+      </c>
+      <c r="H84">
+        <v>-0.02185881938862633</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1702452073367914</v>
+        <v>0.1536545453468074</v>
       </c>
       <c r="C85">
-        <v>0.1143073849137275</v>
+        <v>0.1391570920013861</v>
       </c>
       <c r="D85">
-        <v>0.03410230134525201</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.05951128368516579</v>
+      </c>
+      <c r="E85">
+        <v>-0.03261688507305973</v>
+      </c>
+      <c r="F85">
+        <v>0.05753998716635812</v>
+      </c>
+      <c r="G85">
+        <v>-0.09401865575900498</v>
+      </c>
+      <c r="H85">
+        <v>0.03244504505678031</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01470591654280956</v>
+        <v>0.01615772512477342</v>
       </c>
       <c r="C86">
-        <v>0.03703541239142031</v>
+        <v>0.03491112691736487</v>
       </c>
       <c r="D86">
-        <v>-0.1190031502103024</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1171512291324898</v>
+      </c>
+      <c r="E86">
+        <v>-0.03202259404996614</v>
+      </c>
+      <c r="F86">
+        <v>-0.004419397149352932</v>
+      </c>
+      <c r="G86">
+        <v>0.07671167957920542</v>
+      </c>
+      <c r="H86">
+        <v>0.01208043548518311</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.0187353318150718</v>
+        <v>0.03146428525140334</v>
       </c>
       <c r="C87">
-        <v>0.01662313146542883</v>
+        <v>0.02580777324178434</v>
       </c>
       <c r="D87">
-        <v>-0.0960732211256395</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1309718450281242</v>
+      </c>
+      <c r="E87">
+        <v>-0.05705701165772279</v>
+      </c>
+      <c r="F87">
+        <v>0.0163453812524494</v>
+      </c>
+      <c r="G87">
+        <v>0.006444330383788082</v>
+      </c>
+      <c r="H87">
+        <v>-0.05974382088182013</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07138979332314524</v>
+        <v>0.06527550226409022</v>
       </c>
       <c r="C88">
-        <v>0.04123847728513651</v>
+        <v>0.05461269296512514</v>
       </c>
       <c r="D88">
-        <v>-0.04574996165174287</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02507231337696802</v>
+      </c>
+      <c r="E88">
+        <v>0.001036847356082604</v>
+      </c>
+      <c r="F88">
+        <v>0.03029639769913649</v>
+      </c>
+      <c r="G88">
+        <v>-0.006029775521362583</v>
+      </c>
+      <c r="H88">
+        <v>-0.02598521520123998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2436348852996341</v>
+        <v>0.286533095597803</v>
       </c>
       <c r="C89">
-        <v>-0.3905964410771188</v>
+        <v>-0.3449092450281293</v>
       </c>
       <c r="D89">
-        <v>0.0181808259380316</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.002247024132147558</v>
+      </c>
+      <c r="E89">
+        <v>-0.06014545201149219</v>
+      </c>
+      <c r="F89">
+        <v>0.001824374917227229</v>
+      </c>
+      <c r="G89">
+        <v>-0.04061219705515118</v>
+      </c>
+      <c r="H89">
+        <v>-0.08771685145990779</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2148021498826364</v>
+        <v>0.2442717682934773</v>
       </c>
       <c r="C90">
-        <v>-0.2906982629801596</v>
+        <v>-0.2472937796331642</v>
       </c>
       <c r="D90">
-        <v>-0.001461739872323535</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02274373750592125</v>
+      </c>
+      <c r="E90">
+        <v>-0.04691732166472927</v>
+      </c>
+      <c r="F90">
+        <v>-0.001139265081799451</v>
+      </c>
+      <c r="G90">
+        <v>0.04698849878126238</v>
+      </c>
+      <c r="H90">
+        <v>-0.04269634976664564</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1752671852432539</v>
+        <v>0.1538412853089139</v>
       </c>
       <c r="C91">
-        <v>0.1482418129163582</v>
+        <v>0.1584206390789269</v>
       </c>
       <c r="D91">
-        <v>0.08421233490298603</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08583176212548048</v>
+      </c>
+      <c r="E91">
+        <v>-0.1013437492260943</v>
+      </c>
+      <c r="F91">
+        <v>0.06690281365140423</v>
+      </c>
+      <c r="G91">
+        <v>-0.05573868553915644</v>
+      </c>
+      <c r="H91">
+        <v>0.09462441480321923</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1886477559047009</v>
+        <v>0.2301925856141272</v>
       </c>
       <c r="C92">
-        <v>-0.2741149696785832</v>
+        <v>-0.2666934876601148</v>
       </c>
       <c r="D92">
-        <v>-0.01929078104791836</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03289686137205402</v>
+      </c>
+      <c r="E92">
+        <v>-0.08116108026595056</v>
+      </c>
+      <c r="F92">
+        <v>0.008122905968521337</v>
+      </c>
+      <c r="G92">
+        <v>0.02770730819552271</v>
+      </c>
+      <c r="H92">
+        <v>-0.009785060608717359</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2402956811545492</v>
+        <v>0.2642533954733415</v>
       </c>
       <c r="C93">
-        <v>-0.2984558454273396</v>
+        <v>-0.2549626918038624</v>
       </c>
       <c r="D93">
-        <v>-0.009241723474107132</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.004841307643741269</v>
+      </c>
+      <c r="E93">
+        <v>0.01519128169389404</v>
+      </c>
+      <c r="F93">
+        <v>0.02439389819740902</v>
+      </c>
+      <c r="G93">
+        <v>-0.009557451904516387</v>
+      </c>
+      <c r="H93">
+        <v>-0.003405559004634127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3725989895380865</v>
+        <v>0.3296425888423756</v>
       </c>
       <c r="C94">
-        <v>0.2248736216450808</v>
+        <v>0.2645458673011471</v>
       </c>
       <c r="D94">
-        <v>0.4399725455268226</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.441799051274007</v>
+      </c>
+      <c r="E94">
+        <v>-0.04942000754873371</v>
+      </c>
+      <c r="F94">
+        <v>-0.03746793920636125</v>
+      </c>
+      <c r="G94">
+        <v>0.1388231352813646</v>
+      </c>
+      <c r="H94">
+        <v>-0.3570955313140106</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.06896410757860105</v>
+        <v>0.0674090205149495</v>
       </c>
       <c r="C95">
-        <v>0.05716225484946822</v>
+        <v>0.06163956228067769</v>
       </c>
       <c r="D95">
-        <v>-0.07071903460299564</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.08223409867587621</v>
+      </c>
+      <c r="E95">
+        <v>-0.2736721980573203</v>
+      </c>
+      <c r="F95">
+        <v>-0.7929141247153897</v>
+      </c>
+      <c r="G95">
+        <v>-0.415466156883373</v>
+      </c>
+      <c r="H95">
+        <v>-0.1771809443261485</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1687143742936671</v>
+        <v>0.1621156565984564</v>
       </c>
       <c r="C98">
-        <v>0.04159064697464235</v>
+        <v>0.07278062208744256</v>
       </c>
       <c r="D98">
-        <v>-0.1750785983051126</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1265567553534288</v>
+      </c>
+      <c r="E98">
+        <v>0.3023767184807465</v>
+      </c>
+      <c r="F98">
+        <v>-0.03760003170298921</v>
+      </c>
+      <c r="G98">
+        <v>-0.0401919317533853</v>
+      </c>
+      <c r="H98">
+        <v>0.09357121925641143</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.001403361380651712</v>
+        <v>0.003665221647383543</v>
       </c>
       <c r="C101">
-        <v>0.02066436209353737</v>
+        <v>0.02030679205212015</v>
       </c>
       <c r="D101">
-        <v>-0.07909259942017928</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.09167479917104736</v>
+      </c>
+      <c r="E101">
+        <v>-0.02396948749525665</v>
+      </c>
+      <c r="F101">
+        <v>0.03497762014330305</v>
+      </c>
+      <c r="G101">
+        <v>-0.003747679051902802</v>
+      </c>
+      <c r="H101">
+        <v>-0.09651404084051475</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1229141507528881</v>
+        <v>0.103704490135394</v>
       </c>
       <c r="C102">
-        <v>0.1172819671388876</v>
+        <v>0.1200759505504341</v>
       </c>
       <c r="D102">
-        <v>0.0521056416878909</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.06375871765571789</v>
+      </c>
+      <c r="E102">
+        <v>-0.02938338945287002</v>
+      </c>
+      <c r="F102">
+        <v>-0.01038730923166902</v>
+      </c>
+      <c r="G102">
+        <v>0.01281184629897691</v>
+      </c>
+      <c r="H102">
+        <v>0.03622977215433692</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
